--- a/examples/data-management/artifact/script/PlanControl1.xlsx
+++ b/examples/data-management/artifact/script/PlanControl1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lium183/projects/nexial/tutorials/examples/data-management/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C3C151-83F4-D64C-99CB-55709692E2B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F207539-D837-6A46-9274-E5F4C7A5B0D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="16240" windowWidth="25600" windowHeight="15760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4359,7 +4359,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
